--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himanshi\Desktop\Documents\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A797893-7528-4088-9F55-E8DD1E5E035B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0BFD2-463C-4002-A6E0-E08AA59D9BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>2023, 2024</t>
   </si>
   <si>
-    <t>himanshidosarka@gmail.com</t>
-  </si>
-  <si>
     <t>Parshav</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>Aditi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Their gmail </t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -141,6 +141,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +450,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,6 +458,7 @@
     <col min="3" max="3" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -472,7 +477,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -492,8 +497,8 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -501,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>45411</v>
@@ -512,8 +517,8 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -521,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>45414</v>
@@ -532,8 +537,8 @@
       <c r="E4">
         <v>2023</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -541,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
         <v>45415</v>
@@ -552,8 +557,8 @@
       <c r="E5">
         <v>2023</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -561,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <v>45416</v>
@@ -572,8 +577,8 @@
       <c r="E6">
         <v>2023</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -581,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>45417</v>
@@ -592,8 +597,8 @@
       <c r="E7">
         <v>2023</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -601,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3">
         <v>45411</v>
@@ -612,8 +617,8 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>45419</v>
@@ -632,8 +637,8 @@
       <c r="E9">
         <v>2023</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,7 +646,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
         <v>45420</v>
@@ -652,8 +657,8 @@
       <c r="E10">
         <v>2023</v>
       </c>
-      <c r="F10" t="s">
-        <v>9</v>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <v>45421</v>
@@ -672,8 +677,8 @@
       <c r="E11">
         <v>2023</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
